--- a/Test Design Specifications/Edit_user_profile_TDS.xlsx
+++ b/Test Design Specifications/Edit_user_profile_TDS.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -13,9 +13,185 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="57">
+  <si>
+    <t>Test Design Specification Identifier</t>
+  </si>
+  <si>
+    <t>Features to be Tested</t>
+  </si>
+  <si>
+    <t>Approach Refinements</t>
+  </si>
+  <si>
+    <t>Test Identification</t>
+  </si>
+  <si>
+    <t>Feature Pass/Fail Criteria</t>
+  </si>
+  <si>
+    <t>Test type</t>
+  </si>
+  <si>
+    <t>Expected result</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Proper errors displayed</t>
+  </si>
+  <si>
+    <t>PE_1</t>
+  </si>
+  <si>
+    <t>Submit with all fields empty</t>
+  </si>
+  <si>
+    <t>Nothing in the profile page is changed</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>PE_2</t>
+  </si>
+  <si>
+    <t>Testing by filling a couple of fields with valid information and one with invalid</t>
+  </si>
+  <si>
+    <t>Try with different variations</t>
+  </si>
+  <si>
+    <t>Pop-up message field appears saying that the corresponding field must be filled with valid information in order to proceed</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>Error saying please enter valid "field name" appears</t>
+  </si>
+  <si>
+    <t>PE_3</t>
+  </si>
+  <si>
+    <t>Test the name field with 1 or more than 16 symbols</t>
+  </si>
+  <si>
+    <t>Error saying please enter valid first name appears</t>
+  </si>
+  <si>
+    <t>PE_4</t>
+  </si>
+  <si>
+    <t>Test the last name field with 1 or more than 16 symbols</t>
+  </si>
+  <si>
+    <t>Error saying please enter valid last name appears</t>
+  </si>
+  <si>
+    <t>PE_5</t>
+  </si>
+  <si>
+    <t>Test the address name field with 4 or more than 50 symbols inclusive</t>
+  </si>
+  <si>
+    <t>Error saying that the address field must be between 5 and 50 symbols inclusive</t>
+  </si>
+  <si>
+    <t>PE_6</t>
+  </si>
+  <si>
+    <t>Test the phone number field with 4 or more than 10 numerical symbols inclusive</t>
+  </si>
+  <si>
+    <t>Error saying that the phone number field must be between 5 and 10 numerical symbols  inclusive</t>
+  </si>
+  <si>
+    <t>PE_7</t>
+  </si>
+  <si>
+    <t>Test the phone number field with alphabetical and/or special symbols</t>
+  </si>
+  <si>
+    <t>PE_8</t>
+  </si>
+  <si>
+    <t>Test the password fields for creation of invalid password</t>
+  </si>
+  <si>
+    <t>Error messages appear which are appropriate for the chosen action e.g. "Invalid current password entered"</t>
+  </si>
+  <si>
+    <t>Successful update</t>
+  </si>
+  <si>
+    <t>SU_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter valid first name </t>
+  </si>
+  <si>
+    <t>The first name in the profile page is changed</t>
+  </si>
+  <si>
+    <t>SU_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter valid last name </t>
+  </si>
+  <si>
+    <t>The last name in the profile page is changed</t>
+  </si>
+  <si>
+    <t>SU_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter valid address </t>
+  </si>
+  <si>
+    <t>The address in the profile page is changed</t>
+  </si>
+  <si>
+    <t>SU_4</t>
+  </si>
+  <si>
+    <t>Enter valid telephone</t>
+  </si>
+  <si>
+    <t>The telephone in the profile page is changed</t>
+  </si>
+  <si>
+    <t>SU_6</t>
+  </si>
+  <si>
+    <t>Enter valid password to change your current password</t>
+  </si>
+  <si>
+    <t>The password should be changed in the data base</t>
+  </si>
+  <si>
+    <t>The user should log in with the new password</t>
+  </si>
+  <si>
+    <t>SU_7</t>
+  </si>
+  <si>
+    <t>Update with different City</t>
+  </si>
+  <si>
+    <t>The city in the profile page is changed</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -24,12 +200,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -44,14 +226,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -98,7 +300,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +335,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +543,378 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:H17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>